--- a/Baseline_Aircraft/Database.xlsx
+++ b/Baseline_Aircraft/Database.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\Desktop\Drive\Engineering - Part IIB\AIA Aircraft Design Tools\Parametric Design and Simulation\Baseline_Aircraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3C3B8D1-D62E-4A4E-8879-9A857942E763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182B8A90-0DF6-4EC1-B198-5A98337070DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Aircraft" sheetId="1" r:id="rId1"/>
+    <sheet name="Engines" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>Aircraft display name</t>
   </si>
@@ -60,9 +60,6 @@
     <t>MZFW, kg</t>
   </si>
   <si>
-    <t>MLW, kg</t>
-  </si>
-  <si>
     <t>MTOW, kg</t>
   </si>
   <si>
@@ -76,14 +73,141 @@
   </si>
   <si>
     <t>OE CG, m</t>
+  </si>
+  <si>
+    <t>Market segment</t>
+  </si>
+  <si>
+    <t>medium-range</t>
+  </si>
+  <si>
+    <t>DorsalTank_AirbusA320-200.vsp3</t>
+  </si>
+  <si>
+    <t>Cruise Mach</t>
+  </si>
+  <si>
+    <t>CFM56-5A3</t>
+  </si>
+  <si>
+    <t>BPR</t>
+  </si>
+  <si>
+    <t>Number of engines</t>
+  </si>
+  <si>
+    <t>Engine model</t>
+  </si>
+  <si>
+    <t>Inlet PR</t>
+  </si>
+  <si>
+    <t>Inlet polytropic</t>
+  </si>
+  <si>
+    <t>LPC PR</t>
+  </si>
+  <si>
+    <t>LPC polytropic</t>
+  </si>
+  <si>
+    <t>HPC PR</t>
+  </si>
+  <si>
+    <t>HPC polytropic</t>
+  </si>
+  <si>
+    <t>Combustor efficiency</t>
+  </si>
+  <si>
+    <t>TET, K</t>
+  </si>
+  <si>
+    <t>Combustor PR</t>
+  </si>
+  <si>
+    <t>Combustor fuel</t>
+  </si>
+  <si>
+    <t>HPT polytropic</t>
+  </si>
+  <si>
+    <t>Fan PR</t>
+  </si>
+  <si>
+    <t>Fan polytropic</t>
+  </si>
+  <si>
+    <t>LPT polytropic</t>
+  </si>
+  <si>
+    <t>Core nozzle PR</t>
+  </si>
+  <si>
+    <t>Bypass nozzle PR</t>
+  </si>
+  <si>
+    <t>HPT mechanical</t>
+  </si>
+  <si>
+    <t>Core nozzle polytropic</t>
+  </si>
+  <si>
+    <t>Bypass nozzle polytropic</t>
+  </si>
+  <si>
+    <t>LPT mechanical</t>
+  </si>
+  <si>
+    <t>Jet-A</t>
+  </si>
+  <si>
+    <t>Nacelle diameter, m</t>
+  </si>
+  <si>
+    <t>Nacelle length, m</t>
+  </si>
+  <si>
+    <t>Nacelle inlet diameter, m</t>
+  </si>
+  <si>
+    <t>Nacelle x, m</t>
+  </si>
+  <si>
+    <t>Nacelle y, m</t>
+  </si>
+  <si>
+    <t>Nacelle z, m</t>
+  </si>
+  <si>
+    <t>Max useable fuel weight, kg</t>
+  </si>
+  <si>
+    <t>Design Mach</t>
+  </si>
+  <si>
+    <t>Design altitude, m</t>
+  </si>
+  <si>
+    <t>Design thrust, kN</t>
+  </si>
+  <si>
+    <t>Airbus A320-200ceoMOD</t>
+  </si>
+  <si>
+    <t>Fuel</t>
+  </si>
+  <si>
+    <t>LH2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -102,7 +226,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,6 +248,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -140,14 +318,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,101 +617,438 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:S3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.08984375" customWidth="1"/>
+    <col min="2" max="2" width="18.90625" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" customWidth="1"/>
+    <col min="4" max="4" width="8.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.08984375" customWidth="1"/>
+    <col min="6" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="11.08984375" customWidth="1"/>
+    <col min="9" max="9" width="16.54296875" customWidth="1"/>
+    <col min="10" max="10" width="8.36328125" customWidth="1"/>
+    <col min="11" max="11" width="18.6328125" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.36328125" customWidth="1"/>
+    <col min="15" max="15" width="13.54296875" customWidth="1"/>
+    <col min="16" max="16" width="16.6328125" customWidth="1"/>
+    <col min="17" max="17" width="12.54296875" customWidth="1"/>
+    <col min="18" max="18" width="11.453125" customWidth="1"/>
+    <col min="19" max="19" width="11.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>42175</v>
+      </c>
+      <c r="E2">
+        <v>60500</v>
+      </c>
+      <c r="F2">
+        <v>24209</v>
+      </c>
+      <c r="G2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2">
+        <v>73500</v>
+      </c>
+      <c r="I2" s="5">
+        <v>2.54</v>
+      </c>
+      <c r="J2" s="5">
+        <v>4.1935000000000002</v>
+      </c>
+      <c r="K2" s="6">
+        <v>17.801500000000001</v>
+      </c>
+      <c r="L2" s="6">
+        <v>23.8</v>
+      </c>
+      <c r="M2" s="6">
+        <f>K2+(L2*J2/100)</f>
+        <v>18.799553</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="O2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>12</v>
+      </c>
+      <c r="R2" s="6">
+        <v>5.78</v>
+      </c>
+      <c r="S2" s="6">
+        <v>-1.9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>45175</v>
+      </c>
+      <c r="E3">
+        <v>60500</v>
+      </c>
+      <c r="F3">
+        <v>9000</v>
+      </c>
+      <c r="G3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3">
+        <v>60500</v>
+      </c>
+      <c r="I3" s="5">
+        <v>2.54</v>
+      </c>
+      <c r="J3" s="5">
+        <v>4.1935000000000002</v>
+      </c>
+      <c r="K3" s="6">
+        <v>17.801500000000001</v>
+      </c>
+      <c r="L3" s="6">
+        <v>23.8</v>
+      </c>
+      <c r="M3" s="6">
+        <f>K3+(L3*J3/100)</f>
+        <v>18.799553</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0.78</v>
+      </c>
+      <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>12</v>
+      </c>
+      <c r="R3" s="6">
+        <v>5.78</v>
+      </c>
+      <c r="S3" s="6">
+        <v>-1.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{EFDF5B0B-18C6-4FB5-8DD6-2FD7E139A099}">
+      <formula1>"commuter, short-range, medium-range, long-range"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E36807-17D0-4B78-9BAE-2839B90A21DF}">
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" customWidth="1"/>
-    <col min="8" max="8" width="8.28515625" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.36328125" customWidth="1"/>
+    <col min="2" max="2" width="5.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" customWidth="1"/>
+    <col min="5" max="6" width="16.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="16.1796875" customWidth="1"/>
+    <col min="9" max="9" width="7.90625" customWidth="1"/>
+    <col min="10" max="10" width="14.6328125" customWidth="1"/>
+    <col min="11" max="11" width="7.453125" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" customWidth="1"/>
+    <col min="13" max="13" width="7.08984375" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" customWidth="1"/>
+    <col min="15" max="15" width="7.54296875" customWidth="1"/>
+    <col min="16" max="16" width="14.1796875" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" customWidth="1"/>
+    <col min="18" max="18" width="13.08984375" customWidth="1"/>
+    <col min="19" max="19" width="14.08984375" customWidth="1"/>
+    <col min="20" max="20" width="6.81640625" customWidth="1"/>
+    <col min="21" max="21" width="14.1796875" customWidth="1"/>
+    <col min="22" max="22" width="14.08984375" customWidth="1"/>
+    <col min="23" max="23" width="15.08984375" customWidth="1"/>
+    <col min="24" max="24" width="13.1796875" customWidth="1"/>
+    <col min="25" max="25" width="13.90625" customWidth="1"/>
+    <col min="26" max="26" width="19.90625" customWidth="1"/>
+    <col min="27" max="27" width="15.81640625" customWidth="1"/>
+    <col min="28" max="28" width="21.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="U1" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="V1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="X1" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z1" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="17">
         <v>6</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
       <c r="C2">
-        <v>40430</v>
+        <v>2.0099999999999998</v>
       </c>
       <c r="D2">
-        <v>60500</v>
+        <v>1.73</v>
       </c>
       <c r="E2">
-        <v>64500</v>
+        <v>2.42</v>
       </c>
       <c r="F2">
-        <v>73500</v>
-      </c>
-      <c r="G2" s="5">
-        <v>2.54</v>
-      </c>
-      <c r="H2" s="5">
-        <v>4.1935000000000002</v>
-      </c>
-      <c r="I2" s="6">
-        <v>17.801500000000001</v>
-      </c>
-      <c r="J2" s="6">
-        <v>23.8</v>
-      </c>
-      <c r="K2" s="6">
-        <f>I2+(J2*H2/100)</f>
-        <v>18.799553</v>
+        <v>24.98</v>
+      </c>
+      <c r="G2">
+        <v>0.8</v>
+      </c>
+      <c r="H2">
+        <v>10668</v>
+      </c>
+      <c r="I2">
+        <v>0.98</v>
+      </c>
+      <c r="J2">
+        <v>0.98</v>
+      </c>
+      <c r="K2">
+        <v>1.55</v>
+      </c>
+      <c r="L2">
+        <v>0.93</v>
+      </c>
+      <c r="M2">
+        <v>2.12</v>
+      </c>
+      <c r="N2">
+        <v>0.91</v>
+      </c>
+      <c r="O2">
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="P2">
+        <v>0.91</v>
+      </c>
+      <c r="Q2">
+        <v>0.99</v>
+      </c>
+      <c r="R2">
+        <v>0.95</v>
+      </c>
+      <c r="S2" t="s">
+        <v>40</v>
+      </c>
+      <c r="T2">
+        <v>1540</v>
+      </c>
+      <c r="U2">
+        <v>0.99</v>
+      </c>
+      <c r="V2">
+        <v>0.93</v>
+      </c>
+      <c r="W2">
+        <v>0.99</v>
+      </c>
+      <c r="X2">
+        <v>0.93</v>
+      </c>
+      <c r="Y2">
+        <v>0.95</v>
+      </c>
+      <c r="Z2">
+        <v>0.99</v>
+      </c>
+      <c r="AA2">
+        <v>0.95</v>
+      </c>
+      <c r="AB2">
+        <v>0.99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Baseline_Aircraft/Database.xlsx
+++ b/Baseline_Aircraft/Database.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Henry\Desktop\Drive\Engineering - Part IIB\AIA Aircraft Design Tools\Parametric Design and Simulation\Baseline_Aircraft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182B8A90-0DF6-4EC1-B198-5A98337070DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468CD928-FBB6-4EEE-AD5F-6C58BB070B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3072" yWindow="3072" windowWidth="17280" windowHeight="9912" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Aircraft" sheetId="1" r:id="rId1"/>
@@ -619,34 +619,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7:B15"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" customWidth="1"/>
-    <col min="2" max="2" width="18.90625" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="8.36328125" customWidth="1"/>
-    <col min="5" max="5" width="11.08984375" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
     <col min="6" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="11.08984375" customWidth="1"/>
-    <col min="9" max="9" width="16.54296875" customWidth="1"/>
-    <col min="10" max="10" width="8.36328125" customWidth="1"/>
-    <col min="11" max="11" width="18.6328125" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
-    <col min="13" max="13" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.36328125" customWidth="1"/>
-    <col min="15" max="15" width="13.54296875" customWidth="1"/>
-    <col min="16" max="16" width="16.6328125" customWidth="1"/>
-    <col min="17" max="17" width="12.54296875" customWidth="1"/>
-    <col min="18" max="18" width="11.453125" customWidth="1"/>
-    <col min="19" max="19" width="11.54296875" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" customWidth="1"/>
+    <col min="16" max="16" width="16.6640625" customWidth="1"/>
+    <col min="17" max="17" width="12.5546875" customWidth="1"/>
+    <col min="18" max="18" width="11.44140625" customWidth="1"/>
+    <col min="19" max="19" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -705,7 +705,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -765,7 +765,7 @@
         <v>-1.9</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -840,43 +840,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2E36807-17D0-4B78-9BAE-2839B90A21DF}">
   <dimension ref="A1:AB2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
-    <col min="2" max="2" width="5.453125" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" customWidth="1"/>
-    <col min="5" max="6" width="16.1796875" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
-    <col min="8" max="8" width="16.1796875" customWidth="1"/>
-    <col min="9" max="9" width="7.90625" customWidth="1"/>
-    <col min="10" max="10" width="14.6328125" customWidth="1"/>
-    <col min="11" max="11" width="7.453125" customWidth="1"/>
-    <col min="12" max="12" width="13.453125" customWidth="1"/>
-    <col min="13" max="13" width="7.08984375" customWidth="1"/>
-    <col min="14" max="14" width="13.81640625" customWidth="1"/>
-    <col min="15" max="15" width="7.54296875" customWidth="1"/>
-    <col min="16" max="16" width="14.1796875" customWidth="1"/>
-    <col min="17" max="17" width="18.81640625" customWidth="1"/>
-    <col min="18" max="18" width="13.08984375" customWidth="1"/>
-    <col min="19" max="19" width="14.08984375" customWidth="1"/>
-    <col min="20" max="20" width="6.81640625" customWidth="1"/>
-    <col min="21" max="21" width="14.1796875" customWidth="1"/>
-    <col min="22" max="22" width="14.08984375" customWidth="1"/>
-    <col min="23" max="23" width="15.08984375" customWidth="1"/>
-    <col min="24" max="24" width="13.1796875" customWidth="1"/>
-    <col min="25" max="25" width="13.90625" customWidth="1"/>
-    <col min="26" max="26" width="19.90625" customWidth="1"/>
-    <col min="27" max="27" width="15.81640625" customWidth="1"/>
-    <col min="28" max="28" width="21.54296875" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.33203125" customWidth="1"/>
+    <col min="5" max="6" width="16.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="9" max="9" width="7.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" customWidth="1"/>
+    <col min="12" max="12" width="13.44140625" customWidth="1"/>
+    <col min="13" max="13" width="7.109375" customWidth="1"/>
+    <col min="14" max="14" width="13.77734375" customWidth="1"/>
+    <col min="15" max="15" width="7.5546875" customWidth="1"/>
+    <col min="16" max="16" width="14.21875" customWidth="1"/>
+    <col min="17" max="17" width="18.77734375" customWidth="1"/>
+    <col min="18" max="18" width="13.109375" customWidth="1"/>
+    <col min="19" max="19" width="14.109375" customWidth="1"/>
+    <col min="20" max="20" width="6.77734375" customWidth="1"/>
+    <col min="21" max="21" width="14.21875" customWidth="1"/>
+    <col min="22" max="22" width="14.109375" customWidth="1"/>
+    <col min="23" max="23" width="15.109375" customWidth="1"/>
+    <col min="24" max="24" width="13.21875" customWidth="1"/>
+    <col min="25" max="25" width="13.88671875" customWidth="1"/>
+    <col min="26" max="26" width="19.88671875" customWidth="1"/>
+    <col min="27" max="27" width="15.77734375" customWidth="1"/>
+    <col min="28" max="28" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
@@ -962,7 +962,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
